--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp15-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp15-Bmpr1b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H2">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I2">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J2">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N2">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P2">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q2">
-        <v>0.007260306356999999</v>
+        <v>0.024244218253</v>
       </c>
       <c r="R2">
-        <v>0.06534275721299999</v>
+        <v>0.218197964277</v>
       </c>
       <c r="S2">
-        <v>0.007519807692963031</v>
+        <v>0.01488774918398169</v>
       </c>
       <c r="T2">
-        <v>0.007519807692963031</v>
+        <v>0.01488774918398169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H3">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I3">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J3">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.561996</v>
       </c>
       <c r="O3">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P3">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q3">
-        <v>0.776871518628</v>
+        <v>1.398346959404</v>
       </c>
       <c r="R3">
-        <v>6.991843667652</v>
+        <v>12.585122634636</v>
       </c>
       <c r="S3">
-        <v>0.8046388313339197</v>
+        <v>0.8586888051634379</v>
       </c>
       <c r="T3">
-        <v>0.8046388313339196</v>
+        <v>0.8586888051634378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.185529</v>
+        <v>0.333947</v>
       </c>
       <c r="H4">
-        <v>0.5565869999999999</v>
+        <v>1.001841</v>
       </c>
       <c r="I4">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="J4">
-        <v>0.8622170929313897</v>
+        <v>0.9184595666969813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N4">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P4">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q4">
-        <v>0.04833098477299998</v>
+        <v>0.07309053462733334</v>
       </c>
       <c r="R4">
-        <v>0.4349788629569999</v>
+        <v>0.657814811646</v>
       </c>
       <c r="S4">
-        <v>0.05005845390450711</v>
+        <v>0.04488301234956167</v>
       </c>
       <c r="T4">
-        <v>0.05005845390450711</v>
+        <v>0.04488301234956166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I5">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J5">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.039133</v>
+        <v>0.07259900000000001</v>
       </c>
       <c r="N5">
-        <v>0.117399</v>
+        <v>0.217797</v>
       </c>
       <c r="O5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="P5">
-        <v>0.00872147833139909</v>
+        <v>0.0162094769588191</v>
       </c>
       <c r="Q5">
-        <v>0.001160202139666667</v>
+        <v>0.002152390952333333</v>
       </c>
       <c r="R5">
-        <v>0.010441819257</v>
+        <v>0.019371518571</v>
       </c>
       <c r="S5">
-        <v>0.001201670638436059</v>
+        <v>0.001321727774837408</v>
       </c>
       <c r="T5">
-        <v>0.001201670638436059</v>
+        <v>0.001321727774837408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I6">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J6">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.561996</v>
       </c>
       <c r="O6">
-        <v>0.933220691088698</v>
+        <v>0.9349228167457665</v>
       </c>
       <c r="P6">
-        <v>0.9332206910886979</v>
+        <v>0.9349228167457664</v>
       </c>
       <c r="Q6">
         <v>0.1241446233586667</v>
@@ -818,10 +818,10 @@
         <v>1.117301610228</v>
       </c>
       <c r="S6">
-        <v>0.1285818597547784</v>
+        <v>0.07623401158232859</v>
       </c>
       <c r="T6">
-        <v>0.1285818597547783</v>
+        <v>0.07623401158232858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.08894299999999999</v>
       </c>
       <c r="I7">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="J7">
-        <v>0.1377829070686103</v>
+        <v>0.08154043330301874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2605036666666666</v>
+        <v>0.2188686666666667</v>
       </c>
       <c r="N7">
-        <v>0.781511</v>
+        <v>0.656606</v>
       </c>
       <c r="O7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541442</v>
       </c>
       <c r="P7">
-        <v>0.05805783057990301</v>
+        <v>0.04886770629541441</v>
       </c>
       <c r="Q7">
-        <v>0.007723325874777777</v>
+        <v>0.006488945273111111</v>
       </c>
       <c r="R7">
-        <v>0.06950993287299999</v>
+        <v>0.058400507458</v>
       </c>
       <c r="S7">
-        <v>0.007999376675395898</v>
+        <v>0.003984693945852749</v>
       </c>
       <c r="T7">
-        <v>0.007999376675395896</v>
+        <v>0.003984693945852748</v>
       </c>
     </row>
   </sheetData>
